--- a/Documents/PICT001.xls.xlsx
+++ b/Documents/PICT001.xls.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\pleiades\workspace\ReserveNewPageByCucumber\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2EE1695F-0421-4ADE-8298-B7AA312AD7C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1AFEE-36FA-4E3A-90B5-2549E8939031}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1176,11 +1176,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1300,27 +1300,27 @@
         <v>9</v>
       </c>
       <c r="H2" t="str">
-        <f>A2</f>
+        <f t="shared" ref="H2:M2" si="0">A2</f>
         <v>Friday</v>
       </c>
       <c r="I2">
-        <f>B2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J2">
-        <f>C2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K2" t="str">
-        <f>D2</f>
+        <f t="shared" si="0"/>
         <v>off</v>
       </c>
       <c r="L2" t="str">
-        <f>E2</f>
+        <f t="shared" si="0"/>
         <v>off</v>
       </c>
       <c r="M2" t="str">
-        <f>F2</f>
+        <f t="shared" si="0"/>
         <v>on</v>
       </c>
       <c r="N2" t="s">
@@ -1401,84 +1401,84 @@
         <v>7</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H36" si="0">A3</f>
+        <f t="shared" ref="H3:H36" si="1">A3</f>
         <v>Friday</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I36" si="1">B3</f>
+        <f t="shared" ref="I3:I36" si="2">B3</f>
         <v>2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J36" si="2">C3</f>
+        <f t="shared" ref="J3:J36" si="3">C3</f>
         <v>9</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K36" si="3">D3</f>
+        <f t="shared" ref="K3:K36" si="4">D3</f>
         <v>off</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L36" si="4">E3</f>
+        <f t="shared" ref="L3:L36" si="5">E3</f>
         <v>off</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M36" si="5">F3</f>
+        <f t="shared" ref="M3:M36" si="6">F3</f>
         <v>off</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O36" si="6">AC3</f>
+        <f t="shared" ref="O3:O36" si="7">AC3</f>
         <v>141750</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q36" si="7">S3-R3</f>
+        <f t="shared" ref="Q3:Q36" si="8">S3-R3</f>
         <v>1</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S36" si="8">B3</f>
+        <f t="shared" ref="S3:S36" si="9">B3</f>
         <v>2</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T36" si="9">C3</f>
+        <f t="shared" ref="T3:T36" si="10">C3</f>
         <v>9</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U36" si="10">IF(D3="on", 1, 0)</f>
+        <f t="shared" ref="U3:U36" si="11">IF(D3="on", 1, 0)</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V36" si="11">IF(E3="on",1,0)</f>
+        <f t="shared" ref="V3:V36" si="12">IF(E3="on",1,0)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W36" si="12">IF(F3="on",1,0)</f>
+        <f t="shared" ref="W3:W36" si="13">IF(F3="on",1,0)</f>
         <v>0</v>
       </c>
       <c r="X3">
         <v>7000</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y36" si="13">X3*1.25</f>
+        <f t="shared" ref="Y3:Y36" si="14">X3*1.25</f>
         <v>8750</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z36" si="14">X3*Q3*T3</f>
+        <f t="shared" ref="Z3:Z36" si="15">X3*Q3*T3</f>
         <v>63000</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA36" si="15">Y3*R3*T3</f>
+        <f t="shared" ref="AA3:AA36" si="16">Y3*R3*T3</f>
         <v>78750</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB36" si="16">1000*U3*S3*T3+1000*T3*V3+1000*T3*W3</f>
+        <f t="shared" ref="AB3:AB36" si="17">1000*U3*S3*T3+1000*T3*V3+1000*T3*W3</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC36" si="17">Z3+AA3+AB3</f>
+        <f t="shared" ref="AC3:AC36" si="18">Z3+AA3+AB3</f>
         <v>141750</v>
       </c>
     </row>
@@ -1502,84 +1502,84 @@
         <v>9</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
       </c>
       <c r="O4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59000</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R4">
         <v>2</v>
       </c>
       <c r="S4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="T4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X4">
         <v>7000</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14000</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35000</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>59000</v>
       </c>
     </row>
@@ -1603,84 +1603,84 @@
         <v>7</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N5" t="s">
         <v>37</v>
       </c>
       <c r="O5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>308000</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="R5">
         <v>2</v>
       </c>
       <c r="S5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="T5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="U5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X5">
         <v>7000</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>168000</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>140000</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>308000</v>
       </c>
     </row>
@@ -1704,84 +1704,84 @@
         <v>9</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N6" t="s">
         <v>38</v>
       </c>
       <c r="O6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>79250</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R6">
         <v>3</v>
       </c>
       <c r="S6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="T6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X6">
         <v>7000</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42000</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>26250</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11000</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>79250</v>
       </c>
     </row>
@@ -1805,84 +1805,84 @@
         <v>7</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N7" t="s">
         <v>34</v>
       </c>
       <c r="O7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X7">
         <v>7000</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7000</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7000</v>
       </c>
     </row>
@@ -1906,84 +1906,84 @@
         <v>9</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N8" t="s">
         <v>35</v>
       </c>
       <c r="O8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>144000</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="U8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X8">
         <v>7000</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>112000</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32000</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>144000</v>
       </c>
     </row>
@@ -2007,84 +2007,84 @@
         <v>9</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N9" t="s">
         <v>36</v>
       </c>
       <c r="O9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>198000</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
       <c r="T9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="U9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X9">
         <v>7000</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>189000</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9000</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>198000</v>
       </c>
     </row>
@@ -2108,84 +2108,84 @@
         <v>7</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N10" t="s">
         <v>37</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>82000</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
       <c r="T10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X10">
         <v>7000</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>70000</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12000</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>82000</v>
       </c>
     </row>
@@ -2209,84 +2209,84 @@
         <v>7</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N11" t="s">
         <v>38</v>
       </c>
       <c r="O11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>153000</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R11">
         <v>2</v>
       </c>
       <c r="S11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="T11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X11">
         <v>7000</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>98000</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35000</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20000</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>153000</v>
       </c>
     </row>
@@ -2310,84 +2310,84 @@
         <v>7</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N12" t="s">
         <v>34</v>
       </c>
       <c r="O12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8750</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X12">
         <v>7000</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8750</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8750</v>
       </c>
     </row>
@@ -2411,84 +2411,84 @@
         <v>7</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N13" t="s">
         <v>35</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35000</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R13">
         <v>2</v>
       </c>
       <c r="S13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X13">
         <v>7000</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35000</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>35000</v>
       </c>
     </row>
@@ -2512,84 +2512,84 @@
         <v>7</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N14" t="s">
         <v>36</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>204000</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R14">
         <v>2</v>
       </c>
       <c r="S14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="T14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="U14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X14">
         <v>7000</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>56000</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>140000</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>204000</v>
       </c>
     </row>
@@ -2613,84 +2613,84 @@
         <v>9</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N15" t="s">
         <v>37</v>
       </c>
       <c r="O15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>89000</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="R15">
         <v>2</v>
       </c>
       <c r="S15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="T15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X15">
         <v>7000</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42000</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35000</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12000</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>89000</v>
       </c>
     </row>
@@ -2714,84 +2714,84 @@
         <v>9</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N16" t="s">
         <v>38</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>729000</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R16">
         <v>4</v>
       </c>
       <c r="S16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="T16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="U16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X16">
         <v>7000</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="14"/>
-        <v>315000</v>
-      </c>
-      <c r="AA16">
         <f t="shared" si="15"/>
         <v>315000</v>
       </c>
+      <c r="AA16">
+        <f t="shared" si="16"/>
+        <v>315000</v>
+      </c>
       <c r="AB16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>99000</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>729000</v>
       </c>
     </row>
@@ -2815,84 +2815,84 @@
         <v>9</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N17" t="s">
         <v>34</v>
       </c>
       <c r="O17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>105750</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="U17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X17">
         <v>7000</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>78750</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>27000</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>105750</v>
       </c>
     </row>
@@ -2916,84 +2916,84 @@
         <v>7</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N18" t="s">
         <v>35</v>
       </c>
       <c r="O18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17750</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X18">
         <v>7000</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7000</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8750</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2000</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17750</v>
       </c>
     </row>
@@ -3017,84 +3017,84 @@
         <v>9</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N19" t="s">
         <v>36</v>
       </c>
       <c r="O19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27750</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="S19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="T19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X19">
         <v>7000</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14000</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8750</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27750</v>
       </c>
     </row>
@@ -3118,84 +3118,84 @@
         <v>9</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N20" t="s">
         <v>37</v>
       </c>
       <c r="O20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>342000</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="R20">
         <v>1</v>
       </c>
       <c r="S20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="T20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="U20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X20">
         <v>7000</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>224000</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>70000</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>48000</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>342000</v>
       </c>
     </row>
@@ -3219,84 +3219,84 @@
         <v>7</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N21" t="s">
         <v>38</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136500</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R21">
         <v>3</v>
       </c>
       <c r="S21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="T21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X21">
         <v>7000</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>84000</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>52500</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>136500</v>
       </c>
     </row>
@@ -3320,84 +3320,84 @@
         <v>9</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N22" t="s">
         <v>34</v>
       </c>
       <c r="O22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16000</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X22">
         <v>7000</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14000</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2000</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16000</v>
       </c>
     </row>
@@ -3421,84 +3421,84 @@
         <v>7</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N23" t="s">
         <v>35</v>
       </c>
       <c r="O23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17000</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X23">
         <v>7000</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14000</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3000</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17000</v>
       </c>
     </row>
@@ -3522,84 +3522,84 @@
         <v>7</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>182000</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="T24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="U24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X24">
         <v>7000</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>112000</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>70000</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>182000</v>
       </c>
     </row>
@@ -3623,84 +3623,84 @@
         <v>7</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N25" t="s">
         <v>37</v>
       </c>
       <c r="O25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400500</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="R25">
         <v>2</v>
       </c>
       <c r="S25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="T25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="U25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X25">
         <v>7000</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>189000</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>157500</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>54000</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>400500</v>
       </c>
     </row>
@@ -3724,84 +3724,84 @@
         <v>9</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N26" t="s">
         <v>38</v>
       </c>
       <c r="O26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>612000</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R26">
         <v>2</v>
       </c>
       <c r="S26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="T26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="U26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X26">
         <v>7000</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>392000</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>140000</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>80000</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>612000</v>
       </c>
     </row>
@@ -3825,84 +3825,84 @@
         <v>9</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N27" t="s">
         <v>34</v>
       </c>
       <c r="O27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90000</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="U27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X27">
         <v>7000</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>63000</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>27000</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>90000</v>
       </c>
     </row>
@@ -3926,84 +3926,84 @@
         <v>9</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N28" t="s">
         <v>35</v>
       </c>
       <c r="O28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32000</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X28">
         <v>7000</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28000</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4000</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32000</v>
       </c>
     </row>
@@ -4027,84 +4027,84 @@
         <v>7</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
       </c>
       <c r="O29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
       <c r="T29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X29">
         <v>7000</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21000</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3000</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24000</v>
       </c>
     </row>
@@ -4128,84 +4128,84 @@
         <v>7</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N30" t="s">
         <v>37</v>
       </c>
       <c r="O30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330750</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="R30">
         <v>1</v>
       </c>
       <c r="S30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="T30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="U30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X30">
         <v>7000</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>252000</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>78750</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>330750</v>
       </c>
     </row>
@@ -4229,85 +4229,85 @@
         <v>9</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N31" t="s">
         <v>38</v>
       </c>
       <c r="O31">
-        <f t="shared" si="6"/>
-        <v>526000</v>
+        <f t="shared" si="7"/>
+        <v>540000</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
       <c r="U31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X31">
         <v>7000</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="14"/>
-        <v>448000</v>
+        <f t="shared" si="15"/>
+        <v>392000</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="15"/>
-        <v>70000</v>
+        <f t="shared" si="16"/>
+        <v>140000</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="17"/>
-        <v>526000</v>
+        <f t="shared" si="18"/>
+        <v>540000</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.45">
@@ -4330,84 +4330,84 @@
         <v>9</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N32" t="s">
         <v>34</v>
       </c>
       <c r="O32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20000</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X32">
         <v>7000</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14000</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6000</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20000</v>
       </c>
     </row>
@@ -4431,84 +4431,84 @@
         <v>7</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N33" t="s">
         <v>35</v>
       </c>
       <c r="O33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34000</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="T33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="U33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X33">
         <v>7000</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28000</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6000</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34000</v>
       </c>
     </row>
@@ -4532,84 +4532,84 @@
         <v>9</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>off</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
       </c>
       <c r="O34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
       <c r="T34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="U34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X34">
         <v>7000</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>168000</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32000</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200000</v>
       </c>
     </row>
@@ -4633,84 +4633,84 @@
         <v>7</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>off</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>off</v>
       </c>
       <c r="N35" t="s">
         <v>37</v>
       </c>
       <c r="O35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39500</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="R35">
         <v>2</v>
       </c>
       <c r="S35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="T35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X35">
         <v>7000</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21000</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17500</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>39500</v>
       </c>
     </row>
@@ -4734,84 +4734,84 @@
         <v>9</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>on</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>on</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>on</v>
       </c>
       <c r="N36" t="s">
         <v>38</v>
       </c>
       <c r="O36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>697500</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R36">
         <v>2</v>
       </c>
       <c r="S36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="T36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="U36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X36">
         <v>7000</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8750</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>441000</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>157500</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>99000</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>697500</v>
       </c>
     </row>
@@ -4826,5 +4826,6 @@
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>